--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_extended.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">millionaire_tax_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0533444176631761</v>
+        <v>0.049590635714958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0329798816009736</v>
+        <v>0.0352059596767695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0737089537253785</v>
+        <v>0.0639753117531465</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0598347207166787</v>
+        <v>0.0527475039113948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0298265250964711</v>
+        <v>0.0316466646283374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0898429163368863</v>
+        <v>0.0738483431944522</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00974032745854593</v>
+        <v>0.0233244079993287</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0635586380966236</v>
+        <v>-0.0286578651114438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0830392930137154</v>
+        <v>0.0753066811101012</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0632935135090067</v>
+        <v>0.0673435539952316</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0034425074654679</v>
+        <v>0.0202569571332121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.130029534483481</v>
+        <v>0.114430150857251</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0772257747171691</v>
+        <v>0.0888154785299581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000778987901699058</v>
+        <v>0.035649042829676</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153672561532639</v>
+        <v>0.14198191423024</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0624724061810154</v>
+        <v>0.0262053761911532</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0287860712623196</v>
+        <v>-0.0368046718109262</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15373088362435</v>
+        <v>0.0892154241932327</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122137118438641</v>
+        <v>0.099199542595768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0341224283757668</v>
+        <v>0.0364259825969358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210151808501516</v>
+        <v>0.1619731025946</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0528448366149976</v>
+        <v>0.0558479400636768</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0224960643167219</v>
+        <v>0.00221841562454934</v>
       </c>
       <c r="D9" t="n">
-        <v>0.128185737546717</v>
+        <v>0.109477464502804</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0453087409783475</v>
+        <v>-0.0172352523098804</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0531191125042592</v>
+        <v>-0.0839669887723522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.143736594460954</v>
+        <v>0.0494964841525915</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0399899779690852</v>
+        <v>0.0305925768083384</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00310129102676897</v>
+        <v>0.0000356375296625966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0830812469649395</v>
+        <v>0.0611495160870142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0544965369953877</v>
+        <v>0.0585284294228197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0183541364193138</v>
+        <v>0.0328795309440684</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0906389375714616</v>
+        <v>0.0841773279015711</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
